--- a/biology/Biochimie/Élémicine/Élémicine.xlsx
+++ b/biology/Biochimie/Élémicine/Élémicine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9micine</t>
+          <t>Élémicine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'élémicine ou 3,4,5-triméthoxyallylbenzène est un composé organique aromatique appartenant à la famille des phénylpropènes, un sous-groupe des phénylpropanoïdes. Elle est constituée d'un noyau benzénique substitué par un groupe vinyle et trois groupes méthoxy en positions 3, 4 et 5.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9micine</t>
+          <t>Élémicine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Occurrence naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'élémicine est naturellement présente dans l'élémi, une résine naturelle produite par Canarium luzonicum et de l'huile essentielle (environ 2,4 %)[2] qui en est extraite. Elle est aussi un des constituants de l'huile essentielle de noix de muscade et est partiellement responsable de ses effets psychotropes[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'élémicine est naturellement présente dans l'élémi, une résine naturelle produite par Canarium luzonicum et de l'huile essentielle (environ 2,4 %) qui en est extraite. Elle est aussi un des constituants de l'huile essentielle de noix de muscade et est partiellement responsable de ses effets psychotropes.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9micine</t>
+          <t>Élémicine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Effets</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre ses effets psychotropes, on lui attribue, avec la myristicine, des effets de type anticholinergique observés chez des patients ayant consommé des noix de muscade brutes[4].
-Son métabolisme exact n'est pas clair, mais on pense qu'elle est métabolisée en 3,4,5-triméthoxyamphétamine (TMA)[5] qui a elle-même une structure très proche de la mescaline.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre ses effets psychotropes, on lui attribue, avec la myristicine, des effets de type anticholinergique observés chez des patients ayant consommé des noix de muscade brutes.
+Son métabolisme exact n'est pas clair, mais on pense qu'elle est métabolisée en 3,4,5-triméthoxyamphétamine (TMA) qui a elle-même une structure très proche de la mescaline.
 </t>
         </is>
       </c>
